--- a/temp_mean_outliers.xlsx
+++ b/temp_mean_outliers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupinglu/github/arm-ssa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ylk/github/arm-ssa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370ADAFC-2AD4-3744-BDB2-C57A39777DB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA188975-4380-D94C-BFE0-8ADE81E4EEC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22600" xr2:uid="{10EC3F03-0D68-274B-AB20-18D4C93B661C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27060" xr2:uid="{10EC3F03-0D68-274B-AB20-18D4C93B661C}"/>
   </bookViews>
   <sheets>
     <sheet name="E1 1996-2008" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="E37 2012-2017" sheetId="23" r:id="rId23"/>
     <sheet name="E38 2012-2017" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,23 +105,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -675,7 +665,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +986,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="top10" dxfId="24" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/temp_mean_outliers.xlsx
+++ b/temp_mean_outliers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ylk/github/arm-ssa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA188975-4380-D94C-BFE0-8ADE81E4EEC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50F9C7-D0D9-B042-AA34-632F8D8CBCFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27060" xr2:uid="{10EC3F03-0D68-274B-AB20-18D4C93B661C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27060" firstSheet="4" activeTab="23" xr2:uid="{10EC3F03-0D68-274B-AB20-18D4C93B661C}"/>
   </bookViews>
   <sheets>
     <sheet name="E1 1996-2008" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Absolute Residual</t>
+  </si>
+  <si>
+    <t>DQR</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -662,15 +668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AAE2C1-CE93-4449-960F-EF33E0255572}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,8 +686,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35097</v>
       </c>
@@ -693,7 +708,7 @@
         <v>14.9107546312212</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35098</v>
       </c>
@@ -705,7 +720,7 @@
         <v>14.8786231432275</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35099</v>
       </c>
@@ -717,7 +732,7 @@
         <v>13.620591975261901</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35131</v>
       </c>
@@ -729,7 +744,7 @@
         <v>13.427158200704699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35132</v>
       </c>
@@ -741,7 +756,7 @@
         <v>13.623562453955699</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35149</v>
       </c>
@@ -753,7 +768,7 @@
         <v>16.043580904762099</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35532</v>
       </c>
@@ -765,7 +780,7 @@
         <v>14.7651232423189</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36150</v>
       </c>
@@ -777,7 +792,7 @@
         <v>14.0175660560538</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36151</v>
       </c>
@@ -789,7 +804,7 @@
         <v>18.122175498798299</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36153</v>
       </c>
@@ -801,7 +816,7 @@
         <v>14.0515942100103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36807</v>
       </c>
@@ -813,7 +828,7 @@
         <v>13.872871616250199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36932</v>
       </c>
@@ -825,7 +840,7 @@
         <v>13.6679156924819</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37317</v>
       </c>
@@ -837,7 +852,7 @@
         <v>13.8699632090633</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37318</v>
       </c>
@@ -849,7 +864,7 @@
         <v>16.044594118721498</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37676</v>
       </c>
@@ -995,15 +1010,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F0B535-4EB7-1144-ACA9-7B9FBEEC1638}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1028,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>34374</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>13.4723579324013</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34766</v>
       </c>
@@ -1038,7 +1062,7 @@
         <v>12.9447495674489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>34964</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>13.3976682176646</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35083</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>12.7942547309279</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35098</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>15.582229048743599</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35099</v>
       </c>
@@ -1086,7 +1110,7 @@
         <v>14.6488569788843</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35132</v>
       </c>
@@ -1098,7 +1122,7 @@
         <v>13.8657901362728</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>35149</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>13.143140608422501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35433</v>
       </c>
@@ -1122,7 +1146,7 @@
         <v>14.8327977078381</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>35458</v>
       </c>
@@ -1134,7 +1158,7 @@
         <v>13.030879222435299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>35532</v>
       </c>
@@ -1146,7 +1170,7 @@
         <v>12.8628914900636</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>35798</v>
       </c>
@@ -1158,7 +1182,7 @@
         <v>13.6635096015328</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36151</v>
       </c>
@@ -1170,7 +1194,7 @@
         <v>15.3206277010846</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36163</v>
       </c>
@@ -1182,7 +1206,7 @@
         <v>13.083519878857301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36807</v>
       </c>
@@ -1612,15 +1636,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02418913-82B1-1F47-B0C1-4D446584361C}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1630,8 +1654,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>34374</v>
       </c>
@@ -1643,7 +1676,7 @@
         <v>13.762564213066501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34760</v>
       </c>
@@ -1655,7 +1688,7 @@
         <v>13.482062492583299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>34765</v>
       </c>
@@ -1667,7 +1700,7 @@
         <v>14.4680746763462</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>34766</v>
       </c>
@@ -1679,7 +1712,7 @@
         <v>14.8234925259897</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>34780</v>
       </c>
@@ -1691,7 +1724,7 @@
         <v>13.472240692797399</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>34964</v>
       </c>
@@ -1703,7 +1736,7 @@
         <v>13.541486633992101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35098</v>
       </c>
@@ -1715,7 +1748,7 @@
         <v>16.5937271290308</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>35099</v>
       </c>
@@ -1727,7 +1760,7 @@
         <v>16.069280864079701</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35132</v>
       </c>
@@ -1739,7 +1772,7 @@
         <v>13.941337192343999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>35149</v>
       </c>
@@ -1751,7 +1784,7 @@
         <v>13.636786158312001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>35433</v>
       </c>
@@ -1763,7 +1796,7 @@
         <v>14.838413059751</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>35532</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>13.990262721391501</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>35866</v>
       </c>
@@ -1787,7 +1820,7 @@
         <v>13.2147786301156</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36151</v>
       </c>
@@ -1799,7 +1832,7 @@
         <v>16.745614855282501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36807</v>
       </c>
@@ -2241,15 +2274,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8D2693-9D41-0D48-8E36-D2D5CA2C6686}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2259,8 +2292,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>34352</v>
       </c>
@@ -2272,7 +2314,7 @@
         <v>13.537507057935599</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34374</v>
       </c>
@@ -2284,7 +2326,7 @@
         <v>14.645739715955999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>34760</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>13.2736148612526</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>34766</v>
       </c>
@@ -2308,7 +2350,7 @@
         <v>12.9413697232046</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>34776</v>
       </c>
@@ -2320,7 +2362,7 @@
         <v>14.8820542087043</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35042</v>
       </c>
@@ -2332,7 +2374,7 @@
         <v>13.2150534261829</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35083</v>
       </c>
@@ -2344,7 +2386,7 @@
         <v>13.475020704310401</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>35095</v>
       </c>
@@ -2356,7 +2398,7 @@
         <v>12.8884633987377</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35098</v>
       </c>
@@ -2368,7 +2410,7 @@
         <v>17.094208264626801</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>35099</v>
       </c>
@@ -2380,7 +2422,7 @@
         <v>15.8793308463435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>35121</v>
       </c>
@@ -2392,7 +2434,7 @@
         <v>13.1937764128376</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>35132</v>
       </c>
@@ -2404,7 +2446,7 @@
         <v>14.8356830554641</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>35149</v>
       </c>
@@ -2416,7 +2458,7 @@
         <v>12.9955311865602</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>35433</v>
       </c>
@@ -2428,7 +2470,7 @@
         <v>14.477832238778999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>35442</v>
       </c>
@@ -2846,15 +2888,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4C1144-2CE9-FA4B-81DC-DF1B4DCB01E7}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2864,8 +2906,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36527</v>
       </c>
@@ -2877,7 +2928,7 @@
         <v>14.707088694414001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36930</v>
       </c>
@@ -2889,7 +2940,7 @@
         <v>14.199372581347999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>37265</v>
       </c>
@@ -2901,7 +2952,7 @@
         <v>13.491649286621801</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>37318</v>
       </c>
@@ -2913,7 +2964,7 @@
         <v>16.523536098558701</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>37608</v>
       </c>
@@ -2925,7 +2976,7 @@
         <v>13.4987613735218</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>37676</v>
       </c>
@@ -2937,7 +2988,7 @@
         <v>13.8241433869317</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>37677</v>
       </c>
@@ -2949,7 +3000,7 @@
         <v>14.5827292616228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>37988</v>
       </c>
@@ -2961,7 +3012,7 @@
         <v>14.142140107595001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>37989</v>
       </c>
@@ -2973,7 +3024,7 @@
         <v>15.0533920108548</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>38344</v>
       </c>
@@ -2985,7 +3036,7 @@
         <v>13.0570318528834</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>38358</v>
       </c>
@@ -2997,7 +3048,7 @@
         <v>13.614164902747101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>38363</v>
       </c>
@@ -3009,7 +3060,7 @@
         <v>13.0806841627201</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>38694</v>
       </c>
@@ -3021,7 +3072,7 @@
         <v>16.716848873243801</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>38695</v>
       </c>
@@ -3033,7 +3084,7 @@
         <v>13.891624533005301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38766</v>
       </c>
@@ -3343,15 +3394,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C928A5F-734B-3843-954B-523BCCAAD3EA}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3361,8 +3412,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35095</v>
       </c>
@@ -3374,7 +3434,7 @@
         <v>12.7869336566266</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35098</v>
       </c>
@@ -3386,7 +3446,7 @@
         <v>15.722980125547</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35099</v>
       </c>
@@ -3398,7 +3458,7 @@
         <v>15.185425013061</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35131</v>
       </c>
@@ -3410,7 +3470,7 @@
         <v>12.3460114825897</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35132</v>
       </c>
@@ -3422,7 +3482,7 @@
         <v>13.261147410177401</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35150</v>
       </c>
@@ -3434,7 +3494,7 @@
         <v>12.417705777079499</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35433</v>
       </c>
@@ -3446,7 +3506,7 @@
         <v>13.399620882437301</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>35434</v>
       </c>
@@ -3458,7 +3518,7 @@
         <v>12.3998792292687</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35442</v>
       </c>
@@ -3470,7 +3530,7 @@
         <v>13.418969963433801</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>35443</v>
       </c>
@@ -3482,7 +3542,7 @@
         <v>13.3261228854347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>35532</v>
       </c>
@@ -3494,7 +3554,7 @@
         <v>12.703887649371399</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>35798</v>
       </c>
@@ -3506,7 +3566,7 @@
         <v>13.2539257258648</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36151</v>
       </c>
@@ -3518,7 +3578,7 @@
         <v>15.1597998969703</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36580</v>
       </c>
@@ -3530,7 +3590,7 @@
         <v>12.3918934694213</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36808</v>
       </c>
@@ -3780,15 +3840,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B929D-7E98-9145-ADAB-945111331C23}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3798,8 +3858,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35432</v>
       </c>
@@ -3811,7 +3880,7 @@
         <v>12.554288968435801</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35433</v>
       </c>
@@ -3823,7 +3892,7 @@
         <v>15.0969594649904</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35434</v>
       </c>
@@ -3835,7 +3904,7 @@
         <v>13.768344764708001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35458</v>
       </c>
@@ -3847,7 +3916,7 @@
         <v>13.2030063420115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35798</v>
       </c>
@@ -3859,7 +3928,7 @@
         <v>13.6085807279976</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36151</v>
       </c>
@@ -3871,7 +3940,7 @@
         <v>13.981536699145501</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36163</v>
       </c>
@@ -3883,7 +3952,7 @@
         <v>13.2314747880631</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36164</v>
       </c>
@@ -3895,7 +3964,7 @@
         <v>13.1609485690842</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36807</v>
       </c>
@@ -3907,7 +3976,7 @@
         <v>12.737538959924199</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36808</v>
       </c>
@@ -3919,7 +3988,7 @@
         <v>14.068107367072599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36891</v>
       </c>
@@ -3931,7 +4000,7 @@
         <v>41.010028181023401</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36930</v>
       </c>
@@ -3953,15 +4022,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7069DCE5-B43A-A440-A2DD-92AC8DC1697F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3971,8 +4040,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>37988</v>
       </c>
@@ -3984,7 +4062,7 @@
         <v>13.1252221191051</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>37989</v>
       </c>
@@ -3996,7 +4074,7 @@
         <v>14.588422799126199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>38344</v>
       </c>
@@ -4008,7 +4086,7 @@
         <v>13.130134893654599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>38345</v>
       </c>
@@ -4020,7 +4098,7 @@
         <v>12.5968009980551</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>38353</v>
       </c>
@@ -4032,7 +4110,7 @@
         <v>12.736260373863599</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>38354</v>
       </c>
@@ -4044,7 +4122,7 @@
         <v>12.5122270734291</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>38693</v>
       </c>
@@ -4056,7 +4134,7 @@
         <v>13.610516333540801</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>38694</v>
       </c>
@@ -4068,7 +4146,7 @@
         <v>16.7632687914736</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>38695</v>
       </c>
@@ -4080,7 +4158,7 @@
         <v>14.5463183020744</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>38766</v>
       </c>
@@ -4092,7 +4170,7 @@
         <v>15.340984256435499</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>38767</v>
       </c>
@@ -4104,7 +4182,7 @@
         <v>15.199433879968</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39128</v>
       </c>
@@ -4116,7 +4194,7 @@
         <v>14.510187286447501</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39129</v>
       </c>
@@ -4128,7 +4206,7 @@
         <v>13.427453504943999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39453</v>
       </c>
@@ -4140,7 +4218,7 @@
         <v>14.758173970829301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39454</v>
       </c>
@@ -4198,15 +4276,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66FD7B5-3DB7-6247-B902-93EA086A6E77}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4216,8 +4294,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41302</v>
       </c>
@@ -4229,7 +4316,7 @@
         <v>12.7584658639392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41328</v>
       </c>
@@ -4241,7 +4328,7 @@
         <v>12.468712095130799</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41700</v>
       </c>
@@ -4253,7 +4340,7 @@
         <v>14.024241862646299</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41701</v>
       </c>
@@ -4265,7 +4352,7 @@
         <v>15.585546975731701</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42032</v>
       </c>
@@ -4277,7 +4364,7 @@
         <v>12.984607376576101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42419</v>
       </c>
@@ -4289,7 +4376,7 @@
         <v>13.4664679323441</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42722</v>
       </c>
@@ -4301,7 +4388,7 @@
         <v>16.742774610751699</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42723</v>
       </c>
@@ -4313,7 +4400,7 @@
         <v>14.6933415160987</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42745</v>
       </c>
@@ -4325,7 +4412,7 @@
         <v>12.8330992528838</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43073</v>
       </c>
@@ -4347,15 +4434,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31ADC2B1-795C-F244-92F9-0FEDD272E917}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4365,8 +4452,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41302</v>
       </c>
@@ -4378,7 +4474,7 @@
         <v>19.702154805456502</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41645</v>
       </c>
@@ -4390,7 +4486,7 @@
         <v>13.034943394351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41700</v>
       </c>
@@ -4402,7 +4498,7 @@
         <v>14.367258906815399</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41701</v>
       </c>
@@ -4414,7 +4510,7 @@
         <v>18.136729048975699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41960</v>
       </c>
@@ -4426,7 +4522,7 @@
         <v>13.3253533079174</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42722</v>
       </c>
@@ -4438,7 +4534,7 @@
         <v>16.988073198438201</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42745</v>
       </c>
@@ -4450,7 +4546,7 @@
         <v>13.0158179376061</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43073</v>
       </c>
@@ -4472,15 +4568,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D631A-F688-6648-A6BD-4EA2882C01A2}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4490,8 +4586,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41302</v>
       </c>
@@ -4503,7 +4608,7 @@
         <v>15.5453646568044</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41416</v>
       </c>
@@ -4515,7 +4620,7 @@
         <v>46.090399371399599</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41417</v>
       </c>
@@ -4527,7 +4632,7 @@
         <v>47.560391781204203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41611</v>
       </c>
@@ -4539,7 +4644,7 @@
         <v>39.013515576139099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41612</v>
       </c>
@@ -4551,7 +4656,7 @@
         <v>27.576182826725798</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41701</v>
       </c>
@@ -4563,7 +4668,7 @@
         <v>15.2507698685438</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42722</v>
       </c>
@@ -4575,7 +4680,7 @@
         <v>17.5658751061743</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42723</v>
       </c>
@@ -4587,7 +4692,7 @@
         <v>14.9712018494251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43073</v>
       </c>
@@ -4609,10 +4714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E9F6DF-E099-F04D-993A-C427FC66F65F}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4620,7 +4725,7 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4630,8 +4735,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35432</v>
       </c>
@@ -4643,7 +4757,7 @@
         <v>13.8003491101133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35433</v>
       </c>
@@ -4655,7 +4769,7 @@
         <v>14.331780448835399</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35458</v>
       </c>
@@ -4667,7 +4781,7 @@
         <v>16.5492684691108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35798</v>
       </c>
@@ -4679,7 +4793,7 @@
         <v>13.211010024155099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35866</v>
       </c>
@@ -4691,7 +4805,7 @@
         <v>13.710017379796801</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36151</v>
       </c>
@@ -4703,7 +4817,7 @@
         <v>15.1083570526059</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36163</v>
       </c>
@@ -4715,7 +4829,7 @@
         <v>14.4706375595566</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36164</v>
       </c>
@@ -4727,7 +4841,7 @@
         <v>14.865383673541601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36807</v>
       </c>
@@ -4739,7 +4853,7 @@
         <v>14.0424804007025</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36882</v>
       </c>
@@ -4751,7 +4865,7 @@
         <v>12.891158449399899</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>37230</v>
       </c>
@@ -4763,7 +4877,7 @@
         <v>14.35516525733</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>37318</v>
       </c>
@@ -4775,7 +4889,7 @@
         <v>14.277312339766199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37620</v>
       </c>
@@ -4787,7 +4901,7 @@
         <v>13.2806114076272</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37644</v>
       </c>
@@ -4799,7 +4913,7 @@
         <v>13.906854424764999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37676</v>
       </c>
@@ -5028,15 +5142,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8ED42A-12DB-2B4C-8B04-01BC3C46C897}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5046,8 +5160,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41302</v>
       </c>
@@ -5059,7 +5182,7 @@
         <v>14.716797964536299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41645</v>
       </c>
@@ -5071,7 +5194,7 @@
         <v>13.6182827055503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41676</v>
       </c>
@@ -5083,7 +5206,7 @@
         <v>13.562701325509</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41700</v>
       </c>
@@ -5095,7 +5218,7 @@
         <v>15.062451856509901</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41701</v>
       </c>
@@ -5107,7 +5230,7 @@
         <v>16.934092564623899</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41960</v>
       </c>
@@ -5119,7 +5242,7 @@
         <v>13.824800527123401</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42032</v>
       </c>
@@ -5131,7 +5254,7 @@
         <v>13.5316166887814</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42062</v>
       </c>
@@ -5143,7 +5266,7 @@
         <v>14.567028256876799</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42722</v>
       </c>
@@ -5155,7 +5278,7 @@
         <v>18.201182286513799</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42723</v>
       </c>
@@ -5177,15 +5300,15 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE73B3D7-29B1-024C-BD5E-D8E9ED99DA2E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5195,8 +5318,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41189</v>
       </c>
@@ -5208,7 +5340,7 @@
         <v>13.512301666816599</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41246</v>
       </c>
@@ -5220,7 +5352,7 @@
         <v>13.5098204517569</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41302</v>
       </c>
@@ -5232,7 +5364,7 @@
         <v>14.6802389753989</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41645</v>
       </c>
@@ -5244,7 +5376,7 @@
         <v>13.5273505872591</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41701</v>
       </c>
@@ -5256,7 +5388,7 @@
         <v>16.464331955714801</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42032</v>
       </c>
@@ -5268,7 +5400,7 @@
         <v>14.3164569114307</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42722</v>
       </c>
@@ -5280,7 +5412,7 @@
         <v>17.367187212281301</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42723</v>
       </c>
@@ -5292,7 +5424,7 @@
         <v>15.5780351748285</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42742</v>
       </c>
@@ -5304,7 +5436,7 @@
         <v>13.758479537115401</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42777</v>
       </c>
@@ -5316,7 +5448,7 @@
         <v>13.5977038759913</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43073</v>
       </c>
@@ -5338,10 +5470,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2280BD5B-9A12-6644-92EC-527CFD7D6C3F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5349,7 +5481,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5359,8 +5491,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41302</v>
       </c>
@@ -5372,7 +5513,7 @@
         <v>14.940639530132501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41676</v>
       </c>
@@ -5384,7 +5525,7 @@
         <v>13.862022839728301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41700</v>
       </c>
@@ -5396,7 +5537,7 @@
         <v>14.3684023730225</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41701</v>
       </c>
@@ -5408,7 +5549,7 @@
         <v>17.9429430439518</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41960</v>
       </c>
@@ -5420,7 +5561,7 @@
         <v>13.657571384309501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42032</v>
       </c>
@@ -5432,7 +5573,7 @@
         <v>14.3530405730166</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42722</v>
       </c>
@@ -5444,7 +5585,7 @@
         <v>17.977223679235699</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42723</v>
       </c>
@@ -5456,7 +5597,7 @@
         <v>13.985769375573399</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42742</v>
       </c>
@@ -5468,7 +5609,7 @@
         <v>14.043207125285701</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42777</v>
       </c>
@@ -5490,15 +5631,15 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA59F138-3134-564F-9BE6-F3B52A01BFE2}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5508,8 +5649,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41302</v>
       </c>
@@ -5521,7 +5671,7 @@
         <v>13.9556163281057</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41676</v>
       </c>
@@ -5533,7 +5683,7 @@
         <v>13.272928270711301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41700</v>
       </c>
@@ -5545,7 +5695,7 @@
         <v>13.9324326823356</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41701</v>
       </c>
@@ -5557,7 +5707,7 @@
         <v>16.9208747627235</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41955</v>
       </c>
@@ -5569,7 +5719,7 @@
         <v>12.973115064848701</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41960</v>
       </c>
@@ -5581,7 +5731,7 @@
         <v>13.544585087459</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42062</v>
       </c>
@@ -5593,7 +5743,7 @@
         <v>12.9448712002609</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42722</v>
       </c>
@@ -5605,7 +5755,7 @@
         <v>18.5248194254971</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43073</v>
       </c>
@@ -5627,15 +5777,15 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58FE7C-6EB4-5B4E-93DE-8B1351F4A20A}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5645,8 +5795,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41189</v>
       </c>
@@ -5658,7 +5817,7 @@
         <v>14.6099867199323</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41302</v>
       </c>
@@ -5670,7 +5829,7 @@
         <v>13.815241448375801</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41615</v>
       </c>
@@ -5682,7 +5841,7 @@
         <v>13.2670387278135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41676</v>
       </c>
@@ -5694,7 +5853,7 @@
         <v>13.4718290455291</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41700</v>
       </c>
@@ -5706,7 +5865,7 @@
         <v>14.0738746539775</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41701</v>
       </c>
@@ -5718,7 +5877,7 @@
         <v>17.3398575558309</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42722</v>
       </c>
@@ -5730,7 +5889,7 @@
         <v>16.6426587895367</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42742</v>
       </c>
@@ -5742,7 +5901,7 @@
         <v>15.010715620318001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42777</v>
       </c>
@@ -5754,7 +5913,7 @@
         <v>15.614965972457201</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42785</v>
       </c>
@@ -5766,7 +5925,7 @@
         <v>18.956503394601899</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42786</v>
       </c>
@@ -5778,7 +5937,7 @@
         <v>21.4775373183707</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42788</v>
       </c>
@@ -5790,7 +5949,7 @@
         <v>37.209143500824801</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42789</v>
       </c>
@@ -5802,7 +5961,7 @@
         <v>14.044820951860601</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42793</v>
       </c>
@@ -5814,7 +5973,7 @@
         <v>15.4966254311796</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42814</v>
       </c>
@@ -5836,15 +5995,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C901222-A6AA-0048-A278-177466DE0B79}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5854,8 +6013,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35097</v>
       </c>
@@ -5867,7 +6035,7 @@
         <v>13.866394500013</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35098</v>
       </c>
@@ -5879,7 +6047,7 @@
         <v>16.047748597641601</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35099</v>
       </c>
@@ -5891,7 +6059,7 @@
         <v>14.207364017802499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35131</v>
       </c>
@@ -5903,7 +6071,7 @@
         <v>14.0472986081089</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35132</v>
       </c>
@@ -5915,7 +6083,7 @@
         <v>14.4504874295659</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35149</v>
       </c>
@@ -5927,7 +6095,7 @@
         <v>15.339140673372199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35532</v>
       </c>
@@ -5939,7 +6107,7 @@
         <v>13.563137934370999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36150</v>
       </c>
@@ -5951,7 +6119,7 @@
         <v>13.172409532347899</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36151</v>
       </c>
@@ -5963,7 +6131,7 @@
         <v>16.6564594987676</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36163</v>
       </c>
@@ -5975,7 +6143,7 @@
         <v>13.354195918227299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36807</v>
       </c>
@@ -5987,7 +6155,7 @@
         <v>14.146027570108799</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36808</v>
       </c>
@@ -5999,7 +6167,7 @@
         <v>13.0953957644938</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37644</v>
       </c>
@@ -6011,7 +6179,7 @@
         <v>13.1420509580641</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37685</v>
       </c>
@@ -6023,7 +6191,7 @@
         <v>13.624752037688101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38693</v>
       </c>
@@ -6129,15 +6297,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E485D2-88AC-DF4A-93AD-9EEA63032E7F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6147,8 +6315,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35458</v>
       </c>
@@ -6160,7 +6337,7 @@
         <v>13.3891693379315</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36151</v>
       </c>
@@ -6172,7 +6349,7 @@
         <v>15.7426199669948</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36163</v>
       </c>
@@ -6184,7 +6361,7 @@
         <v>13.8826198470303</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36164</v>
       </c>
@@ -6196,7 +6373,7 @@
         <v>13.414816415784699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36807</v>
       </c>
@@ -6208,7 +6385,7 @@
         <v>14.8244999188378</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36808</v>
       </c>
@@ -6220,7 +6397,7 @@
         <v>13.3776325109783</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>37230</v>
       </c>
@@ -6232,7 +6409,7 @@
         <v>14.2310137495479</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>37318</v>
       </c>
@@ -6244,7 +6421,7 @@
         <v>14.4653877150743</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>37676</v>
       </c>
@@ -6256,7 +6433,7 @@
         <v>14.422388255305099</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>37677</v>
       </c>
@@ -6268,7 +6445,7 @@
         <v>14.9561258671394</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>38351</v>
       </c>
@@ -6280,7 +6457,7 @@
         <v>12.925671767333601</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>38693</v>
       </c>
@@ -6292,7 +6469,7 @@
         <v>14.8358857096711</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>38694</v>
       </c>
@@ -6304,7 +6481,7 @@
         <v>18.5983285674596</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>38695</v>
       </c>
@@ -6316,7 +6493,7 @@
         <v>15.008040782069701</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38766</v>
       </c>
@@ -6398,15 +6575,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F9FB73-8189-474C-BE46-6B2CA0B14820}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6416,8 +6593,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35441</v>
       </c>
@@ -6429,7 +6615,7 @@
         <v>14.9678326148141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35442</v>
       </c>
@@ -6441,7 +6627,7 @@
         <v>14.2407887879461</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35443</v>
       </c>
@@ -6453,7 +6639,7 @@
         <v>15.226138789810699</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35458</v>
       </c>
@@ -6465,7 +6651,7 @@
         <v>13.8117085244991</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36151</v>
       </c>
@@ -6477,7 +6663,7 @@
         <v>15.874798497607999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36163</v>
       </c>
@@ -6489,7 +6675,7 @@
         <v>13.997425802215901</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36164</v>
       </c>
@@ -6501,7 +6687,7 @@
         <v>13.035280016547199</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36807</v>
       </c>
@@ -6513,7 +6699,7 @@
         <v>14.9301380318886</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>37229</v>
       </c>
@@ -6525,7 +6711,7 @@
         <v>13.013101717009301</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>37230</v>
       </c>
@@ -6537,7 +6723,7 @@
         <v>14.4902009711932</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>37318</v>
       </c>
@@ -6549,7 +6735,7 @@
         <v>14.734406436826401</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>37644</v>
       </c>
@@ -6561,7 +6747,7 @@
         <v>13.0988623086869</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37676</v>
       </c>
@@ -6573,7 +6759,7 @@
         <v>14.332693692302</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37677</v>
       </c>
@@ -6585,7 +6771,7 @@
         <v>15.1500768552163</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38344</v>
       </c>
@@ -6823,15 +7009,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9108F6F-9331-FE40-8516-F35A4AD68ECC}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6841,8 +7027,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35098</v>
       </c>
@@ -6854,7 +7049,7 @@
         <v>15.1477782900396</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35433</v>
       </c>
@@ -6866,7 +7061,7 @@
         <v>15.6636926593655</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35798</v>
       </c>
@@ -6878,7 +7073,7 @@
         <v>15.1596939831513</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>38694</v>
       </c>
@@ -6890,7 +7085,7 @@
         <v>17.1696576038077</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>38695</v>
       </c>
@@ -6902,7 +7097,7 @@
         <v>17.817272523084601</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39053</v>
       </c>
@@ -6914,7 +7109,7 @@
         <v>15.6127964659787</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>39453</v>
       </c>
@@ -6926,7 +7121,7 @@
         <v>15.7897476784986</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39454</v>
       </c>
@@ -6938,7 +7133,7 @@
         <v>16.9942876548015</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40542</v>
       </c>
@@ -6950,7 +7145,7 @@
         <v>15.8664497108613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40584</v>
       </c>
@@ -6962,7 +7157,7 @@
         <v>18.866597332411899</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40784</v>
       </c>
@@ -6974,7 +7169,7 @@
         <v>17.333835189434001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40785</v>
       </c>
@@ -6986,7 +7181,7 @@
         <v>58.285831545354597</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40786</v>
       </c>
@@ -6998,7 +7193,7 @@
         <v>29.7172939641728</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40787</v>
       </c>
@@ -7010,7 +7205,7 @@
         <v>16.475759501786602</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40789</v>
       </c>
@@ -7248,15 +7443,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D3176B-0350-9A40-B461-33388262A86B}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7266,8 +7461,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>34765</v>
       </c>
@@ -7279,7 +7483,7 @@
         <v>14.270580176686</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34766</v>
       </c>
@@ -7291,7 +7495,7 @@
         <v>13.853340865345199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>34963</v>
       </c>
@@ -7303,7 +7507,7 @@
         <v>14.0985583793386</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35098</v>
       </c>
@@ -7315,7 +7519,7 @@
         <v>15.176309803535901</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35149</v>
       </c>
@@ -7327,7 +7531,7 @@
         <v>14.4619693375362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35532</v>
       </c>
@@ -7339,7 +7543,7 @@
         <v>13.8705421897413</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36150</v>
       </c>
@@ -7351,7 +7555,7 @@
         <v>13.787328142453999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36151</v>
       </c>
@@ -7363,7 +7567,7 @@
         <v>17.433779296425602</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36152</v>
       </c>
@@ -7375,7 +7579,7 @@
         <v>14.0969199093354</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36807</v>
       </c>
@@ -7387,7 +7591,7 @@
         <v>13.9177148428866</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>37317</v>
       </c>
@@ -7399,7 +7603,7 @@
         <v>14.4573742962938</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>37318</v>
       </c>
@@ -7411,7 +7615,7 @@
         <v>14.8965183202503</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37676</v>
       </c>
@@ -7423,7 +7627,7 @@
         <v>16.4441637123048</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37677</v>
       </c>
@@ -7435,7 +7639,7 @@
         <v>16.629550439429799</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38345</v>
       </c>
@@ -7541,15 +7745,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9665E9D-8487-5E44-84EF-2AC238A180C7}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7559,8 +7763,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>34374</v>
       </c>
@@ -7572,7 +7785,7 @@
         <v>14.116137268099401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34766</v>
       </c>
@@ -7584,7 +7797,7 @@
         <v>13.109142585841999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>34964</v>
       </c>
@@ -7596,7 +7809,7 @@
         <v>14.121286838136699</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35083</v>
       </c>
@@ -7608,7 +7821,7 @@
         <v>13.9402679829411</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35098</v>
       </c>
@@ -7620,7 +7833,7 @@
         <v>15.1139478478055</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35099</v>
       </c>
@@ -7632,7 +7845,7 @@
         <v>13.0547762026097</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>35131</v>
       </c>
@@ -7644,7 +7857,7 @@
         <v>13.0164449074248</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>35132</v>
       </c>
@@ -7656,7 +7869,7 @@
         <v>14.7420940749022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>35149</v>
       </c>
@@ -7668,7 +7881,7 @@
         <v>13.5231653463049</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>35433</v>
       </c>
@@ -7680,7 +7893,7 @@
         <v>13.798857731896099</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>35458</v>
       </c>
@@ -7692,7 +7905,7 @@
         <v>14.388716310863201</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36151</v>
       </c>
@@ -7704,7 +7917,7 @@
         <v>16.0504381584804</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36163</v>
       </c>
@@ -7716,7 +7929,7 @@
         <v>13.791235574842601</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36807</v>
       </c>
@@ -7728,7 +7941,7 @@
         <v>14.8169284600824</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37230</v>
       </c>
@@ -8101,15 +8314,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA29E799-6ED5-914D-891A-94C80A5D069E}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8119,8 +8332,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35098</v>
       </c>
@@ -8132,7 +8354,7 @@
         <v>16.112417167382201</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35099</v>
       </c>
@@ -8144,7 +8366,7 @@
         <v>15.5878879997308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36151</v>
       </c>
@@ -8156,7 +8378,7 @@
         <v>15.683157688953001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>37318</v>
       </c>
@@ -8168,7 +8390,7 @@
         <v>14.8154716286307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>37676</v>
       </c>
@@ -8180,7 +8402,7 @@
         <v>15.512955505980999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>38694</v>
       </c>
@@ -8192,7 +8414,7 @@
         <v>16.164870016038801</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>38824</v>
       </c>
@@ -8204,7 +8426,7 @@
         <v>19.941627776998502</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39475</v>
       </c>
@@ -8216,7 +8438,7 @@
         <v>15.264900343844101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40542</v>
       </c>
@@ -8228,7 +8450,7 @@
         <v>14.758319012979699</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40584</v>
       </c>
@@ -8240,7 +8462,7 @@
         <v>21.084558757434898</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40591</v>
       </c>
@@ -8252,7 +8474,7 @@
         <v>19.975728946702901</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41302</v>
       </c>
@@ -8264,7 +8486,7 @@
         <v>14.549099705265601</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41701</v>
       </c>
@@ -8276,7 +8498,7 @@
         <v>15.9043980482965</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42722</v>
       </c>
@@ -8288,7 +8510,7 @@
         <v>17.7442509299802</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42915</v>
       </c>
